--- a/outputs-HGR-r202/g__Enterococcus_D.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus_D.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,33 +488,163 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s__Enterococcus_D sp002850555(reject)</t>
+          <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT1276.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3326964350623292</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6673035649376708</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6673035649376708</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1288.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3267275506822255</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6732724493177745</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6732724493177745</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT1297.fa</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>0.3329814105223234</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" t="n">
         <v>0.6670185894776766</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>0.6670185894776766</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_D sp002850555(reject)</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3484.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3194956940374233</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6805043059625767</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6805043059625767</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3508.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3389345929208898</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6610654070791102</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6610654070791102</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT67625.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3336905663509095</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6663094336490905</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6663094336490905</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Enterococcus_D.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus_D.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,174 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3484.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3194956940374233</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6805043059625767</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6805043059625767</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3493.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2978388180484441</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7021611819515559</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7021611819515559</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3499.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.328362143922872</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.671637856077128</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.671637856077128</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3508.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3389345929208898</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6610654070791102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6610654070791102</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3553.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3068931938121259</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6931068061878741</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6931068061878741</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43457.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3036693650517193</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6963306349482807</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6963306349482807</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT67625.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3336905663509095</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6663094336490905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6663094336490905</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT945.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3115664341681526</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6884335658318474</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6884335658318474</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Enterococcus_D.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus_D.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>s__Enterococcus_D sp002850555</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -708,6 +768,11 @@
         <v>0.6884335658318474</v>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_D sp002850555</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>s__Enterococcus_D sp002850555</t>
         </is>
